--- a/xlsx/商务印书馆_intext.xlsx
+++ b/xlsx/商务印书馆_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="286">
   <si>
     <t>商务印书馆</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E5%8B%99%E5%8D%B0%E6%9B%B8%E9%A4%A8_(%E9%A6%99%E6%B8%AF)</t>
   </si>
   <si>
-    <t>商務印書館 (香港)</t>
+    <t>商务印书馆 (香港)</t>
   </si>
   <si>
     <t>政策_政策_政治_商务印书馆</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%BA%E7%89%88%E6%A5%AD</t>
   </si>
   <si>
-    <t>出版業</t>
+    <t>出版业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E7%B4%93</t>
   </si>
   <si>
-    <t>林紓</t>
+    <t>林纾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E7%B4%A2%E5%AF%93%E8%A8%80</t>
@@ -305,7 +305,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%99%E9%9B%B2%E5%B2%AB</t>
   </si>
   <si>
-    <t>余雲岫</t>
+    <t>馀云岫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E9%80%82</t>
@@ -323,7 +323,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%96%B9%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>東方圖書館</t>
+    <t>东方图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E9%83%A8%E4%B8%9B%E5%88%8A</t>
@@ -353,13 +353,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80</t>
   </si>
   <si>
-    <t>澳門</t>
+    <t>澳门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3</t>
   </si>
   <si>
-    <t>臺灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E8%A5%BF%E4%BA%9A</t>
@@ -395,7 +395,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>中國大陸</t>
+    <t>中国大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%81%E4%BA%BA%E5%85%AC%E5%8F%B8</t>
@@ -407,13 +407,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%A3%E4%BA%8B%E9%95%B7</t>
   </si>
   <si>
-    <t>董事長</t>
+    <t>董事长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8C%97%E5%B8%82</t>
@@ -437,25 +437,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A6%E6%94%B6%E8%B3%87%E6%9C%AC</t>
   </si>
   <si>
-    <t>實收資本</t>
+    <t>实收资本</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%87%BA%E5%B9%A3</t>
   </si>
   <si>
-    <t>新臺幣</t>
+    <t>新台币</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E5%95%86%E5%8B%99%E5%8D%B0%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>臺灣商務印書館</t>
+    <t>台湾商务印书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8D%E6%85%B6%E5%8D%97%E8%B7%AF_(%E5%8F%B0%E5%8C%97%E5%B8%82)</t>
   </si>
   <si>
-    <t>重慶南路 (台北市)</t>
+    <t>重庆南路 (台北市)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -467,25 +467,22 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E9%9B%B2%E4%BA%94</t>
   </si>
   <si>
-    <t>王雲五</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E6%95%85%E5%AE%AE%E5%8D%9A%E7%89%A9%E9%99%A2</t>
   </si>
   <si>
-    <t>國立故宮博物院</t>
+    <t>国立故宫博物院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E6%B7%B5%E9%96%A3</t>
   </si>
   <si>
-    <t>文淵閣</t>
+    <t>文渊阁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E5%BA%AB%E5%85%A8%E6%9B%B8</t>
   </si>
   <si>
-    <t>四庫全書</t>
+    <t>四库全书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%B1%E5%8D%B0</t>
@@ -497,19 +494,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%AD%B8</t>
   </si>
   <si>
-    <t>漢學</t>
+    <t>汉学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>圖書館</t>
+    <t>图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AD%B2%E7%AE%95%E7%81%A3</t>
   </si>
   <si>
-    <t>筲箕灣</t>
+    <t>筲箕湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%90%E5%85%AC%E5%8F%B8</t>
@@ -527,31 +524,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%95%E9%A0%AD%E5%B8%82</t>
   </si>
   <si>
-    <t>汕頭市</t>
+    <t>汕头市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%92%B0</t>
   </si>
   <si>
-    <t>西環</t>
+    <t>西环</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E5%8B%99%E5%8D%B0%E6%9B%B8%E9%A4%A8%EF%BC%88%E9%A6%99%E6%B8%AF%EF%BC%89%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>商務印書館（香港）有限公司</t>
+    <t>商务印书馆（香港）有限公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%87%BA%E7%89%88%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>聯合出版集團</t>
+    <t>联合出版集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E8%AF%91%E4%B8%96%E7%95%8C%E5%AD%A6%E6%9C%AF%E5%90%8D%E8%91%97%E4%B8%9B%E4%B9%A6</t>
   </si>
   <si>
-    <t>汉译世界学术名著丛书</t>
+    <t>汉译世界学术名着丛书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%87%BA%E7%89%88%E9%9B%86%E5%9B%A2%E5%85%AC%E5%8F%B8</t>
@@ -575,7 +572,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8F%AF%E5%AD%97%E5%85%B8</t>
   </si>
   <si>
-    <t>新華字典</t>
+    <t>新华字典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%88%E4%BA%91</t>
@@ -635,7 +632,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%9F%E5%8D%97%E6%A9%9F%E5%99%A8%E8%A3%BD%E9%80%A0%E7%B8%BD%E5%B1%80</t>
   </si>
   <si>
-    <t>江南機器製造總局</t>
+    <t>江南机器制造总局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%AB%E5%8F%91%E6%B4%8B%E8%A1%8C</t>
@@ -677,7 +674,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B5%B7%E5%B8%82_(%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B)</t>
   </si>
   <si>
-    <t>上海市 (中華民國)</t>
+    <t>上海市 (中华民国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%B8%9C%E4%B9%A6%E5%B1%80</t>
@@ -743,7 +740,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%A9%E7%A4%BE</t>
   </si>
   <si>
-    <t>復社</t>
+    <t>复社</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B5%B7%E4%B8%96%E7%BA%AA%E5%87%BA%E7%89%88%E9%9B%86%E5%9B%A2</t>
@@ -869,7 +866,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
@@ -3392,7 +3389,7 @@
         <v>149</v>
       </c>
       <c r="F75" t="s">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3418,10 +3415,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" t="s">
         <v>151</v>
-      </c>
-      <c r="F76" t="s">
-        <v>152</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3447,10 +3444,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>152</v>
+      </c>
+      <c r="F77" t="s">
         <v>153</v>
-      </c>
-      <c r="F77" t="s">
-        <v>154</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3476,10 +3473,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F78" t="s">
         <v>155</v>
-      </c>
-      <c r="F78" t="s">
-        <v>156</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3505,10 +3502,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>156</v>
+      </c>
+      <c r="F79" t="s">
         <v>157</v>
-      </c>
-      <c r="F79" t="s">
-        <v>158</v>
       </c>
       <c r="G79" t="n">
         <v>2</v>
@@ -3534,10 +3531,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>158</v>
+      </c>
+      <c r="F80" t="s">
         <v>159</v>
-      </c>
-      <c r="F80" t="s">
-        <v>160</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3563,10 +3560,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>160</v>
+      </c>
+      <c r="F81" t="s">
         <v>161</v>
-      </c>
-      <c r="F81" t="s">
-        <v>162</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3592,10 +3589,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>162</v>
+      </c>
+      <c r="F82" t="s">
         <v>163</v>
-      </c>
-      <c r="F82" t="s">
-        <v>164</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3650,10 +3647,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F84" t="s">
         <v>165</v>
-      </c>
-      <c r="F84" t="s">
-        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3679,10 +3676,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>166</v>
+      </c>
+      <c r="F85" t="s">
         <v>167</v>
-      </c>
-      <c r="F85" t="s">
-        <v>168</v>
       </c>
       <c r="G85" t="n">
         <v>15</v>
@@ -3708,10 +3705,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>168</v>
+      </c>
+      <c r="F86" t="s">
         <v>169</v>
-      </c>
-      <c r="F86" t="s">
-        <v>170</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3737,10 +3734,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>170</v>
+      </c>
+      <c r="F87" t="s">
         <v>171</v>
-      </c>
-      <c r="F87" t="s">
-        <v>172</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3766,10 +3763,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>172</v>
+      </c>
+      <c r="F88" t="s">
         <v>173</v>
-      </c>
-      <c r="F88" t="s">
-        <v>174</v>
       </c>
       <c r="G88" t="n">
         <v>3</v>
@@ -3795,10 +3792,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>174</v>
+      </c>
+      <c r="F89" t="s">
         <v>175</v>
-      </c>
-      <c r="F89" t="s">
-        <v>176</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3824,10 +3821,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>176</v>
+      </c>
+      <c r="F90" t="s">
         <v>177</v>
-      </c>
-      <c r="F90" t="s">
-        <v>178</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3853,10 +3850,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>178</v>
+      </c>
+      <c r="F91" t="s">
         <v>179</v>
-      </c>
-      <c r="F91" t="s">
-        <v>180</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3882,10 +3879,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>180</v>
+      </c>
+      <c r="F92" t="s">
         <v>181</v>
-      </c>
-      <c r="F92" t="s">
-        <v>182</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3911,10 +3908,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>182</v>
+      </c>
+      <c r="F93" t="s">
         <v>183</v>
-      </c>
-      <c r="F93" t="s">
-        <v>184</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3940,10 +3937,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>184</v>
+      </c>
+      <c r="F94" t="s">
         <v>185</v>
-      </c>
-      <c r="F94" t="s">
-        <v>186</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3969,10 +3966,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>186</v>
+      </c>
+      <c r="F95" t="s">
         <v>187</v>
-      </c>
-      <c r="F95" t="s">
-        <v>188</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3998,10 +3995,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>188</v>
+      </c>
+      <c r="F96" t="s">
         <v>189</v>
-      </c>
-      <c r="F96" t="s">
-        <v>190</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4027,10 +4024,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>190</v>
+      </c>
+      <c r="F97" t="s">
         <v>191</v>
-      </c>
-      <c r="F97" t="s">
-        <v>192</v>
       </c>
       <c r="G97" t="n">
         <v>3</v>
@@ -4056,10 +4053,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>192</v>
+      </c>
+      <c r="F98" t="s">
         <v>193</v>
-      </c>
-      <c r="F98" t="s">
-        <v>194</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4085,10 +4082,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>194</v>
+      </c>
+      <c r="F99" t="s">
         <v>195</v>
-      </c>
-      <c r="F99" t="s">
-        <v>196</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4114,10 +4111,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>196</v>
+      </c>
+      <c r="F100" t="s">
         <v>197</v>
-      </c>
-      <c r="F100" t="s">
-        <v>198</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4143,10 +4140,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>198</v>
+      </c>
+      <c r="F101" t="s">
         <v>199</v>
-      </c>
-      <c r="F101" t="s">
-        <v>200</v>
       </c>
       <c r="G101" t="n">
         <v>2</v>
@@ -4172,10 +4169,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>200</v>
+      </c>
+      <c r="F102" t="s">
         <v>201</v>
-      </c>
-      <c r="F102" t="s">
-        <v>202</v>
       </c>
       <c r="G102" t="n">
         <v>3</v>
@@ -4201,10 +4198,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>202</v>
+      </c>
+      <c r="F103" t="s">
         <v>203</v>
-      </c>
-      <c r="F103" t="s">
-        <v>204</v>
       </c>
       <c r="G103" t="n">
         <v>2</v>
@@ -4230,10 +4227,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>204</v>
+      </c>
+      <c r="F104" t="s">
         <v>205</v>
-      </c>
-      <c r="F104" t="s">
-        <v>206</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
@@ -4259,10 +4256,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>206</v>
+      </c>
+      <c r="F105" t="s">
         <v>207</v>
-      </c>
-      <c r="F105" t="s">
-        <v>208</v>
       </c>
       <c r="G105" t="n">
         <v>2</v>
@@ -4288,10 +4285,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>208</v>
+      </c>
+      <c r="F106" t="s">
         <v>209</v>
-      </c>
-      <c r="F106" t="s">
-        <v>210</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4317,10 +4314,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>210</v>
+      </c>
+      <c r="F107" t="s">
         <v>211</v>
-      </c>
-      <c r="F107" t="s">
-        <v>212</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4375,10 +4372,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>212</v>
+      </c>
+      <c r="F109" t="s">
         <v>213</v>
-      </c>
-      <c r="F109" t="s">
-        <v>214</v>
       </c>
       <c r="G109" t="n">
         <v>2</v>
@@ -4404,10 +4401,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>214</v>
+      </c>
+      <c r="F110" t="s">
         <v>215</v>
-      </c>
-      <c r="F110" t="s">
-        <v>216</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4433,10 +4430,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>216</v>
+      </c>
+      <c r="F111" t="s">
         <v>217</v>
-      </c>
-      <c r="F111" t="s">
-        <v>218</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4462,10 +4459,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>218</v>
+      </c>
+      <c r="F112" t="s">
         <v>219</v>
-      </c>
-      <c r="F112" t="s">
-        <v>220</v>
       </c>
       <c r="G112" t="n">
         <v>4</v>
@@ -4491,10 +4488,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>220</v>
+      </c>
+      <c r="F113" t="s">
         <v>221</v>
-      </c>
-      <c r="F113" t="s">
-        <v>222</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4520,10 +4517,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>222</v>
+      </c>
+      <c r="F114" t="s">
         <v>223</v>
-      </c>
-      <c r="F114" t="s">
-        <v>224</v>
       </c>
       <c r="G114" t="n">
         <v>2</v>
@@ -4549,10 +4546,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>224</v>
+      </c>
+      <c r="F115" t="s">
         <v>225</v>
-      </c>
-      <c r="F115" t="s">
-        <v>226</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4578,10 +4575,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>226</v>
+      </c>
+      <c r="F116" t="s">
         <v>227</v>
-      </c>
-      <c r="F116" t="s">
-        <v>228</v>
       </c>
       <c r="G116" t="n">
         <v>2</v>
@@ -4607,10 +4604,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>228</v>
+      </c>
+      <c r="F117" t="s">
         <v>229</v>
-      </c>
-      <c r="F117" t="s">
-        <v>230</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4636,10 +4633,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>230</v>
+      </c>
+      <c r="F118" t="s">
         <v>231</v>
-      </c>
-      <c r="F118" t="s">
-        <v>232</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4665,10 +4662,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>232</v>
+      </c>
+      <c r="F119" t="s">
         <v>233</v>
-      </c>
-      <c r="F119" t="s">
-        <v>234</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4694,10 +4691,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>234</v>
+      </c>
+      <c r="F120" t="s">
         <v>235</v>
-      </c>
-      <c r="F120" t="s">
-        <v>236</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
@@ -4723,10 +4720,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>236</v>
+      </c>
+      <c r="F121" t="s">
         <v>237</v>
-      </c>
-      <c r="F121" t="s">
-        <v>238</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4752,10 +4749,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>238</v>
+      </c>
+      <c r="F122" t="s">
         <v>239</v>
-      </c>
-      <c r="F122" t="s">
-        <v>240</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4781,10 +4778,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>240</v>
+      </c>
+      <c r="F123" t="s">
         <v>241</v>
-      </c>
-      <c r="F123" t="s">
-        <v>242</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4810,10 +4807,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>210</v>
+      </c>
+      <c r="F124" t="s">
         <v>211</v>
-      </c>
-      <c r="F124" t="s">
-        <v>212</v>
       </c>
       <c r="G124" t="n">
         <v>2</v>
@@ -4839,13 +4836,13 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>242</v>
+      </c>
+      <c r="F125" t="s">
         <v>243</v>
       </c>
-      <c r="F125" t="s">
-        <v>244</v>
-      </c>
       <c r="G125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H125" t="s">
         <v>4</v>
@@ -4868,10 +4865,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>244</v>
+      </c>
+      <c r="F126" t="s">
         <v>245</v>
-      </c>
-      <c r="F126" t="s">
-        <v>246</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -4897,10 +4894,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>246</v>
+      </c>
+      <c r="F127" t="s">
         <v>247</v>
-      </c>
-      <c r="F127" t="s">
-        <v>248</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -4926,10 +4923,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>248</v>
+      </c>
+      <c r="F128" t="s">
         <v>249</v>
-      </c>
-      <c r="F128" t="s">
-        <v>250</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -4955,10 +4952,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>250</v>
+      </c>
+      <c r="F129" t="s">
         <v>251</v>
-      </c>
-      <c r="F129" t="s">
-        <v>252</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -4984,10 +4981,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>252</v>
+      </c>
+      <c r="F130" t="s">
         <v>253</v>
-      </c>
-      <c r="F130" t="s">
-        <v>254</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5013,10 +5010,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>254</v>
+      </c>
+      <c r="F131" t="s">
         <v>255</v>
-      </c>
-      <c r="F131" t="s">
-        <v>256</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5042,10 +5039,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>256</v>
+      </c>
+      <c r="F132" t="s">
         <v>257</v>
-      </c>
-      <c r="F132" t="s">
-        <v>258</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5071,10 +5068,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>256</v>
+      </c>
+      <c r="F133" t="s">
         <v>257</v>
-      </c>
-      <c r="F133" t="s">
-        <v>258</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5100,10 +5097,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>258</v>
+      </c>
+      <c r="F134" t="s">
         <v>259</v>
-      </c>
-      <c r="F134" t="s">
-        <v>260</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5129,10 +5126,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>260</v>
+      </c>
+      <c r="F135" t="s">
         <v>261</v>
-      </c>
-      <c r="F135" t="s">
-        <v>262</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5158,10 +5155,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>262</v>
+      </c>
+      <c r="F136" t="s">
         <v>263</v>
-      </c>
-      <c r="F136" t="s">
-        <v>264</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5187,10 +5184,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>264</v>
+      </c>
+      <c r="F137" t="s">
         <v>265</v>
-      </c>
-      <c r="F137" t="s">
-        <v>266</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5216,10 +5213,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>212</v>
+      </c>
+      <c r="F138" t="s">
         <v>213</v>
-      </c>
-      <c r="F138" t="s">
-        <v>214</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5245,10 +5242,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>266</v>
+      </c>
+      <c r="F139" t="s">
         <v>267</v>
-      </c>
-      <c r="F139" t="s">
-        <v>268</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5274,10 +5271,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>268</v>
+      </c>
+      <c r="F140" t="s">
         <v>269</v>
-      </c>
-      <c r="F140" t="s">
-        <v>270</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5303,10 +5300,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>270</v>
+      </c>
+      <c r="F141" t="s">
         <v>271</v>
-      </c>
-      <c r="F141" t="s">
-        <v>272</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5332,10 +5329,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>272</v>
+      </c>
+      <c r="F142" t="s">
         <v>273</v>
-      </c>
-      <c r="F142" t="s">
-        <v>274</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -5361,10 +5358,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>274</v>
+      </c>
+      <c r="F143" t="s">
         <v>275</v>
-      </c>
-      <c r="F143" t="s">
-        <v>276</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5390,10 +5387,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>276</v>
+      </c>
+      <c r="F144" t="s">
         <v>277</v>
-      </c>
-      <c r="F144" t="s">
-        <v>278</v>
       </c>
       <c r="G144" t="n">
         <v>4</v>
@@ -5419,10 +5416,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>278</v>
+      </c>
+      <c r="F145" t="s">
         <v>279</v>
-      </c>
-      <c r="F145" t="s">
-        <v>280</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5448,10 +5445,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>234</v>
+      </c>
+      <c r="F146" t="s">
         <v>235</v>
-      </c>
-      <c r="F146" t="s">
-        <v>236</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5477,10 +5474,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>280</v>
+      </c>
+      <c r="F147" t="s">
         <v>281</v>
-      </c>
-      <c r="F147" t="s">
-        <v>282</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5506,10 +5503,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>282</v>
+      </c>
+      <c r="F148" t="s">
         <v>283</v>
-      </c>
-      <c r="F148" t="s">
-        <v>284</v>
       </c>
       <c r="G148" t="n">
         <v>3</v>
@@ -5535,10 +5532,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>284</v>
+      </c>
+      <c r="F149" t="s">
         <v>285</v>
-      </c>
-      <c r="F149" t="s">
-        <v>286</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
